--- a/Functions Constraints LSR - Tiger Takeoff.xlsx
+++ b/Functions Constraints LSR - Tiger Takeoff.xlsx
@@ -937,7 +937,7 @@
   <dimension ref="B1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
